--- a/results/FrequencyTables/26581162_sg221F.xlsx
+++ b/results/FrequencyTables/26581162_sg221F.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0183284457478006</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="D2">
-        <v>0.92</v>
+        <v>0.934017595307918</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0234604105571848</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.977272727272727</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0205278592375367</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0381231671554252</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00586510263929619</v>
       </c>
       <c r="K2">
-        <v>0.61</v>
+        <v>0.74266862170088</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00219941348973607</v>
       </c>
       <c r="M2">
-        <v>0.12</v>
+        <v>0.254398826979472</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.976539589442815</v>
       </c>
       <c r="O2">
-        <v>0.02</v>
+        <v>0.0410557184750733</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.39</v>
+        <v>0.3841642228739</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0183284457478006</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0175953079178886</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.960410557184751</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0285923753665689</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.030058651026393</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00659824046920821</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08</v>
+        <v>0.113636363636364</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00366568914956012</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="E3">
-        <v>0.99</v>
+        <v>0.947947214076246</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0168621700879765</v>
       </c>
       <c r="G3">
-        <v>0.95</v>
+        <v>0.928152492668622</v>
       </c>
       <c r="H3">
-        <v>0.95</v>
+        <v>0.971407624633431</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.959677419354839</v>
       </c>
       <c r="J3">
-        <v>0.12</v>
+        <v>0.063049853372434</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0249266862170088</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00146627565982405</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00513196480938416</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00219941348973607</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.991935483870968</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.997800586510264</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00293255131964809</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.961143695014663</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00146627565982405</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0102639296187683</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00219941348973607</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0168621700879765</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00366568914956012</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0168621700879765</v>
       </c>
       <c r="D4">
-        <v>0.08</v>
+        <v>0.06158357771261</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00659824046920821</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00293255131964809</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0219941348973607</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00146627565982405</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0.0256598240469208</v>
       </c>
       <c r="K4">
-        <v>0.39</v>
+        <v>0.202346041055718</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00293255131964809</v>
       </c>
       <c r="M4">
-        <v>0.88</v>
+        <v>0.73900293255132</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00586510263929619</v>
       </c>
       <c r="O4">
-        <v>0.98</v>
+        <v>0.956744868035191</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="R4">
-        <v>0.01</v>
+        <v>0.00219941348973607</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.977272727272727</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0175953079178886</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0124633431085044</v>
       </c>
       <c r="W4">
-        <v>0.99</v>
+        <v>0.963343108504399</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.971407624633431</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.92</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.951612903225806</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00366568914956012</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.0219941348973607</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00293255131964809</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>0.0498533724340176</v>
       </c>
       <c r="H5">
-        <v>0.05</v>
+        <v>0.00586510263929619</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="J5">
-        <v>0.87</v>
+        <v>0.905425219941349</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.030058651026393</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.978739002932551</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00366568914956012</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0124633431085044</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00733137829912024</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00146627565982405</v>
       </c>
       <c r="R5">
-        <v>0.6</v>
+        <v>0.612903225806452</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000733137829912023</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00366568914956012</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00586510263929619</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.948680351906158</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00439882697947214</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00513196480938416</v>
       </c>
     </row>
   </sheetData>
